--- a/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -2608,12 +2608,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.72</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -4028,32 +4028,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -4065,32 +4065,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -4482,22 +4482,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -4509,22 +4509,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -4546,32 +4546,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -4583,32 +4583,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -4620,32 +4620,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5510,12 +5510,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5653,17 +5653,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -6406,32 +6406,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -6443,32 +6443,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6527,22 +6527,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7115,17 +7115,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.62</t>
         </is>
       </c>
     </row>
@@ -7295,22 +7295,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -7359,32 +7359,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.62</t>
         </is>
       </c>
     </row>
@@ -7396,32 +7396,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -7433,32 +7433,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -7470,32 +7470,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7670,17 +7670,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.42</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -563,27 +563,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -605,22 +605,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -637,27 +637,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -706,32 +706,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
@@ -743,32 +743,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -780,32 +780,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -817,32 +817,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -854,32 +854,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>M'Gladbach</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -928,32 +928,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -965,32 +965,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1002,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M'Gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -1123,22 +1123,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -1326,32 +1326,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -1363,32 +1363,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.71</t>
         </is>
       </c>
     </row>
@@ -1442,27 +1442,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -1479,27 +1479,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -1590,27 +1590,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -1627,27 +1627,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1766,27 +1766,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1813,17 +1813,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.83</t>
         </is>
       </c>
     </row>
@@ -1882,22 +1882,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -1951,27 +1951,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1983,32 +1983,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -2020,32 +2020,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -2057,32 +2057,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2094,32 +2094,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -2131,32 +2131,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.71</t>
         </is>
       </c>
     </row>
@@ -2168,32 +2168,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.13</t>
         </is>
       </c>
     </row>
@@ -2215,22 +2215,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -2252,22 +2252,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2294,17 +2294,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -2316,32 +2316,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.83</t>
         </is>
       </c>
     </row>
@@ -2353,32 +2353,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -2497,27 +2497,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2539,22 +2539,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2571,27 +2571,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -2608,17 +2608,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2640,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -2677,32 +2677,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -2835,22 +2835,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -2862,32 +2862,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.19</t>
         </is>
       </c>
     </row>
@@ -2936,32 +2936,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -2973,32 +2973,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3020,22 +3020,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3057,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3089,27 +3089,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3136,17 +3136,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -3163,27 +3163,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3275,17 +3275,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -3302,27 +3302,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3349,17 +3349,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -3450,27 +3450,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -3482,32 +3482,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -3519,32 +3519,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.71</t>
         </is>
       </c>
     </row>
@@ -3556,32 +3556,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -3593,32 +3593,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -3640,22 +3640,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3677,22 +3677,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -3704,32 +3704,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -3741,32 +3741,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -3778,32 +3778,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -3815,32 +3815,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -3867,17 +3867,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.42</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.42</t>
         </is>
       </c>
     </row>
@@ -4001,22 +4001,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -4033,27 +4033,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -4144,12 +4144,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.62</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -4213,17 +4213,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -4255,27 +4255,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4297,22 +4297,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -4324,32 +4324,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -4361,17 +4361,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4445,22 +4445,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -4472,32 +4472,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -4509,32 +4509,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -4546,32 +4546,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -4583,32 +4583,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -4704,22 +4704,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -4801,27 +4801,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -4838,27 +4838,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -4880,22 +4880,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -4912,22 +4912,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4954,22 +4954,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5023,27 +5023,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -5060,22 +5060,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5097,27 +5097,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
     </row>
@@ -5129,32 +5129,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fakel</t>
+          <t>Rostov</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -5166,32 +5166,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rostov</t>
+          <t>Fakel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.89</t>
         </is>
       </c>
     </row>
@@ -5203,32 +5203,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ural</t>
+          <t>Akhmat Grozny</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -5240,32 +5240,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Akhmat Grozny</t>
+          <t>Ural</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5329,17 +5329,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.89</t>
         </is>
       </c>
     </row>
@@ -5366,17 +5366,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -5453,32 +5453,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sporting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -5490,32 +5490,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sporting</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -5537,22 +5537,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -5574,22 +5574,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -5606,27 +5606,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -5648,22 +5648,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -5685,22 +5685,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -5712,32 +5712,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -5749,32 +5749,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -5786,32 +5786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -5823,32 +5823,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -5860,32 +5860,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -5897,32 +5897,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -5934,32 +5934,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -5971,32 +5971,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -6008,32 +6008,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6060,17 +6060,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -6087,17 +6087,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -6226,27 +6226,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6273,17 +6273,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -6295,32 +6295,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -6332,32 +6332,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -6369,32 +6369,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -6406,32 +6406,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -6453,12 +6453,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6480,32 +6480,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.26</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6532,17 +6532,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -6559,27 +6559,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -6601,22 +6601,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.27</t>
         </is>
       </c>
     </row>
@@ -6633,27 +6633,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6665,32 +6665,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -6702,32 +6702,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6739,32 +6739,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.37</t>
         </is>
       </c>
     </row>
@@ -6781,27 +6781,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -6813,32 +6813,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -6850,32 +6850,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -6892,27 +6892,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -6994,27 +6994,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -7031,27 +7031,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7078,17 +7078,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7115,17 +7115,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7152,17 +7152,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -7174,32 +7174,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Başakşehir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -7211,32 +7211,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -7258,17 +7258,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7285,32 +7285,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -7322,32 +7322,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.71</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7374,17 +7374,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -7396,32 +7396,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -7433,32 +7433,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -7470,32 +7470,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -7517,22 +7517,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -7554,22 +7554,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -7581,32 +7581,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -7618,32 +7618,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -7655,32 +7655,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -7702,22 +7702,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP10_ligas.xlsx
@@ -489,12 +489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.08</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -674,27 +674,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.64</t>
         </is>
       </c>
     </row>
@@ -743,32 +743,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -780,32 +780,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -817,32 +817,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -970,22 +970,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -1220,27 +1220,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
@@ -1378,17 +1378,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.77</t>
         </is>
       </c>
     </row>
@@ -1410,22 +1410,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -1447,17 +1447,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.77</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -1548,32 +1548,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -1595,22 +1595,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -1627,27 +1627,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -1734,22 +1734,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.72</t>
         </is>
       </c>
     </row>
@@ -1766,27 +1766,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G. A. Eagle</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>G. A. Eagle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -1988,27 +1988,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -2057,32 +2057,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2094,32 +2094,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -2136,27 +2136,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -2173,12 +2173,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -2294,17 +2294,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2465,22 +2465,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -2539,22 +2539,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -2571,27 +2571,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -2613,22 +2613,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2640,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -2677,32 +2677,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -2788,32 +2788,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -2825,32 +2825,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2862,32 +2862,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -2909,22 +2909,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2946,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.75</t>
         </is>
       </c>
     </row>
@@ -2983,22 +2983,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -3052,27 +3052,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3141,12 +3141,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -3168,22 +3168,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -3312,17 +3312,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -3339,27 +3339,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -3408,32 +3408,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.72</t>
         </is>
       </c>
     </row>
@@ -3492,22 +3492,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3529,22 +3529,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3593,32 +3593,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -3630,32 +3630,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3677,22 +3677,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
@@ -3704,32 +3704,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3751,22 +3751,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3788,22 +3788,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3815,32 +3815,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -3867,17 +3867,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -3894,27 +3894,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -4028,32 +4028,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -4065,32 +4065,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4117,17 +4117,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -4228,17 +4228,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -4250,32 +4250,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -4287,32 +4287,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -4324,17 +4324,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.82</t>
         </is>
       </c>
     </row>
@@ -4366,27 +4366,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4445,22 +4445,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -4482,22 +4482,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -4524,17 +4524,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -4556,22 +4556,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.43</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4598,17 +4598,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4677,12 +4677,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -4699,27 +4699,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -4796,32 +4796,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Krasnodar</t>
+          <t>Zenit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -4833,32 +4833,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zenit</t>
+          <t>Krasnodar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.35</t>
         </is>
       </c>
     </row>
@@ -4880,22 +4880,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.80</t>
         </is>
       </c>
     </row>
@@ -4907,32 +4907,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lokomotiv Moskva</t>
+          <t>CSKA Moskva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -4944,32 +4944,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spartak Moskva</t>
+          <t>Lokomotiv Moskva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -4981,32 +4981,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Krylya Sovetov</t>
+          <t>Spartak Moskva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.65</t>
         </is>
       </c>
     </row>
@@ -5018,32 +5018,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CSKA Moskva</t>
+          <t>Krylya Sovetov</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -5065,22 +5065,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5107,17 +5107,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -5134,27 +5134,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.90</t>
         </is>
       </c>
     </row>
@@ -5171,27 +5171,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
@@ -5208,27 +5208,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -5240,32 +5240,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ural</t>
+          <t>Orenburg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -5277,32 +5277,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Orenburg</t>
+          <t>Ural</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5473,12 +5473,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -5505,17 +5505,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -5532,27 +5532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -5569,27 +5569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5606,27 +5606,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5653,17 +5653,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -5685,22 +5685,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -5722,22 +5722,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -5749,32 +5749,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5791,27 +5791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
@@ -5823,32 +5823,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -5860,32 +5860,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.80</t>
         </is>
       </c>
     </row>
@@ -5897,32 +5897,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -5934,32 +5934,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -5971,32 +5971,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -6008,32 +6008,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
@@ -6045,32 +6045,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -6082,32 +6082,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -6189,27 +6189,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6231,22 +6231,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -6258,32 +6258,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6305,22 +6305,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -6337,27 +6337,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -6374,27 +6374,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -6416,22 +6416,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -6453,22 +6453,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -6490,22 +6490,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -6517,32 +6517,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6554,32 +6554,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -6596,27 +6596,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6628,32 +6628,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -6665,32 +6665,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -6702,32 +6702,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -6739,32 +6739,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -6776,32 +6776,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -6813,32 +6813,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -6855,27 +6855,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -6902,17 +6902,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7009,12 +7009,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
@@ -7068,27 +7068,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -7120,12 +7120,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -7142,12 +7142,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7157,12 +7157,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
@@ -7184,22 +7184,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7231,12 +7231,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.72</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7258,22 +7258,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
@@ -7285,32 +7285,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
@@ -7322,32 +7322,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -7369,22 +7369,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -7396,32 +7396,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.72</t>
         </is>
       </c>
     </row>
@@ -7433,32 +7433,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7470,32 +7470,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -7507,32 +7507,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
@@ -7544,32 +7544,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Karagümrük</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -7596,17 +7596,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -7618,32 +7618,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Karagümrük</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7660,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7675,12 +7675,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -7707,17 +7707,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
